--- a/model/프로토타입_Transformer모델_input_steps_설정비교.xlsx
+++ b/model/프로토타입_Transformer모델_input_steps_설정비교.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\koreaIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD936D1-99C9-4186-BA3B-A5B20757DD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F49A240-34F5-4D77-AFBF-F92927B5466D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18930" yWindow="1860" windowWidth="19300" windowHeight="18050" activeTab="1" xr2:uid="{1052DC91-91C7-425C-90D9-24232C7F0067}"/>
+    <workbookView xWindow="18090" yWindow="2140" windowWidth="19300" windowHeight="18050" activeTab="1" xr2:uid="{1052DC91-91C7-425C-90D9-24232C7F0067}"/>
   </bookViews>
   <sheets>
     <sheet name="프로토타입" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="71">
   <si>
     <t>input_steps = 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,9 +505,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -518,6 +515,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1164,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988941AA-E4AC-4408-8458-3E9F84A70074}">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1636,10 +1636,10 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>24</v>
@@ -1656,70 +1656,45 @@
       <c r="G16">
         <v>2</v>
       </c>
-      <c r="H16">
-        <v>55</v>
+      <c r="H16" s="12">
+        <v>10.27</v>
       </c>
       <c r="I16" t="s">
         <v>30</v>
       </c>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>24</v>
       </c>
       <c r="D17">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <v>502</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" s="12"/>
       <c r="I17" t="s">
         <v>30</v>
       </c>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18">
-        <v>44</v>
-      </c>
-      <c r="C18">
-        <v>24</v>
-      </c>
-      <c r="D18">
-        <v>16</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>16</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>114</v>
-      </c>
-      <c r="I18" t="s">
-        <v>30</v>
-      </c>
+      <c r="H18" s="4"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
@@ -1732,27 +1707,56 @@
         <v>24</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>32</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>55</v>
+      </c>
+      <c r="I19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>64</v>
+      </c>
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="F19">
-        <v>16</v>
-      </c>
-      <c r="G19">
+      <c r="F20">
+        <v>64</v>
+      </c>
+      <c r="G20">
         <v>4</v>
       </c>
-      <c r="H19">
-        <v>117</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H20">
+        <v>502</v>
+      </c>
+      <c r="I20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>44</v>
@@ -1761,19 +1765,19 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="I21" t="s">
         <v>30</v>
@@ -1781,7 +1785,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>44</v>
@@ -1790,59 +1794,27 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>733</v>
+        <v>117</v>
       </c>
       <c r="I22" t="s">
         <v>30</v>
       </c>
-      <c r="J22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
         <v>46</v>
-      </c>
-      <c r="B23">
-        <v>52</v>
-      </c>
-      <c r="C23">
-        <v>24</v>
-      </c>
-      <c r="D23">
-        <v>16</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>16</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>31</v>
-      </c>
-      <c r="I23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="17.5" thickBot="1">
-      <c r="A24" t="s">
-        <v>50</v>
       </c>
       <c r="B24">
         <v>44</v>
@@ -1863,21 +1835,18 @@
         <v>2</v>
       </c>
       <c r="H24">
-        <v>453</v>
+        <v>10</v>
       </c>
       <c r="I24" t="s">
         <v>30</v>
-      </c>
-      <c r="J24" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1894,56 +1863,51 @@
       <c r="G25">
         <v>2</v>
       </c>
-      <c r="H25" s="5">
-        <v>7</v>
+      <c r="H25">
+        <v>733</v>
       </c>
       <c r="I25" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="9">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="K25" s="8"/>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>46</v>
       </c>
       <c r="B26">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C26">
         <v>24</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
-      <c r="H26" s="6">
-        <v>16</v>
+      <c r="H26">
+        <v>31</v>
       </c>
       <c r="I26" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="10">
-        <v>21.83</v>
-      </c>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:11" ht="17.5" thickBot="1">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B27">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>24</v>
@@ -1960,16 +1924,15 @@
       <c r="G27">
         <v>2</v>
       </c>
-      <c r="H27" s="6">
-        <v>11</v>
+      <c r="H27">
+        <v>453</v>
       </c>
       <c r="I27" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="10">
-        <v>16.8</v>
-      </c>
-      <c r="K27" s="8"/>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
@@ -1993,16 +1956,15 @@
       <c r="G28">
         <v>2</v>
       </c>
-      <c r="H28" s="6">
-        <v>8</v>
+      <c r="H28" s="5">
+        <v>7</v>
       </c>
       <c r="I28" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="10">
-        <v>12.83</v>
-      </c>
-      <c r="K28" s="8"/>
+      <c r="J28" s="8">
+        <v>9.2100000000000009</v>
+      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
@@ -2027,15 +1989,14 @@
         <v>2</v>
       </c>
       <c r="H29" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="10">
-        <v>25.47</v>
-      </c>
-      <c r="K29" s="8"/>
+      <c r="J29" s="9">
+        <v>21.83</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
@@ -2060,15 +2021,14 @@
         <v>2</v>
       </c>
       <c r="H30" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I30" t="s">
         <v>30</v>
       </c>
-      <c r="J30" s="10">
-        <v>8.68</v>
-      </c>
-      <c r="K30" s="8"/>
+      <c r="J30" s="9">
+        <v>16.8</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
@@ -2093,15 +2053,14 @@
         <v>2</v>
       </c>
       <c r="H31" s="6">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I31" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="10">
-        <v>14.11</v>
-      </c>
-      <c r="K31" s="8"/>
+      <c r="J31" s="9">
+        <v>12.83</v>
+      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
@@ -2126,17 +2085,16 @@
         <v>2</v>
       </c>
       <c r="H32" s="6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I32" t="s">
         <v>30</v>
       </c>
-      <c r="J32" s="10">
-        <v>9.27</v>
-      </c>
-      <c r="K32" s="8"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="J32" s="9">
+        <v>25.47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2159,17 +2117,16 @@
         <v>2</v>
       </c>
       <c r="H33" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I33" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="11">
-        <v>7.11</v>
-      </c>
-      <c r="K33" s="8"/>
-    </row>
-    <row r="34" spans="1:11" ht="17.5" thickBot="1">
+      <c r="J33" s="9">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -2191,124 +2148,123 @@
       <c r="G34">
         <v>2</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="9">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>32</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>32</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" s="6">
+        <v>8</v>
+      </c>
+      <c r="I35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="9">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>32</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>32</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36" s="6">
+        <v>5</v>
+      </c>
+      <c r="I36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="10">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>48</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>32</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>32</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" s="7">
         <v>7</v>
       </c>
-      <c r="I34" t="s">
-        <v>30</v>
-      </c>
-      <c r="J34" s="12">
+      <c r="I37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" s="11">
         <v>9.17</v>
       </c>
-      <c r="K34" s="8"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="H35" s="4">
-        <f>AVERAGE(H25:H34)</f>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="H38" s="4">
+        <f>AVERAGE(H28:H37)</f>
         <v>9.8000000000000007</v>
       </c>
-      <c r="J35" s="4">
-        <f>AVERAGE(J25:J34)</f>
+      <c r="J38" s="4">
+        <f>AVERAGE(J28:J37)</f>
         <v>13.447999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38">
-        <v>44</v>
-      </c>
-      <c r="C38">
-        <v>24</v>
-      </c>
-      <c r="D38">
-        <v>32</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>32</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>106</v>
-      </c>
-      <c r="I38" t="s">
-        <v>30</v>
-      </c>
-      <c r="J38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39">
-        <v>44</v>
-      </c>
-      <c r="C39">
-        <v>24</v>
-      </c>
-      <c r="D39">
-        <v>32</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <v>32</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
-        <v>115.49</v>
-      </c>
-      <c r="I39" t="s">
-        <v>30</v>
-      </c>
-      <c r="J39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40">
-        <v>44</v>
-      </c>
-      <c r="C40">
-        <v>24</v>
-      </c>
-      <c r="D40">
-        <v>32</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40">
-        <v>32</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>106.66</v>
-      </c>
-      <c r="I40" t="s">
-        <v>30</v>
-      </c>
-      <c r="J40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -2331,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="H41">
-        <v>151.06</v>
+        <v>106</v>
       </c>
       <c r="I41" t="s">
         <v>30</v>
@@ -2340,9 +2296,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B42">
         <v>44</v>
@@ -2363,18 +2319,18 @@
         <v>2</v>
       </c>
       <c r="H42">
-        <v>8</v>
+        <v>115.49</v>
       </c>
       <c r="I42" t="s">
         <v>30</v>
       </c>
       <c r="J42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B43">
         <v>44</v>
@@ -2395,18 +2351,18 @@
         <v>2</v>
       </c>
       <c r="H43">
-        <v>10</v>
+        <v>106.66</v>
       </c>
       <c r="I43" t="s">
         <v>30</v>
       </c>
       <c r="J43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B44">
         <v>44</v>
@@ -2427,18 +2383,18 @@
         <v>2</v>
       </c>
       <c r="H44">
-        <v>9</v>
+        <v>151.06</v>
       </c>
       <c r="I44" t="s">
         <v>30</v>
       </c>
       <c r="J44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -2459,18 +2415,18 @@
         <v>2</v>
       </c>
       <c r="H45">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I45" t="s">
         <v>30</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B46">
         <v>44</v>
@@ -2491,18 +2447,18 @@
         <v>2</v>
       </c>
       <c r="H46">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="I46" t="s">
         <v>30</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B47">
         <v>44</v>
@@ -2523,18 +2479,18 @@
         <v>2</v>
       </c>
       <c r="H47">
-        <v>13.96</v>
+        <v>9</v>
       </c>
       <c r="I47" t="s">
         <v>30</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B48">
         <v>44</v>
@@ -2555,13 +2511,13 @@
         <v>2</v>
       </c>
       <c r="H48">
-        <v>12.41</v>
+        <v>10</v>
       </c>
       <c r="I48" t="s">
         <v>30</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2587,7 +2543,7 @@
         <v>2</v>
       </c>
       <c r="H49">
-        <v>9.06</v>
+        <v>45</v>
       </c>
       <c r="I49" t="s">
         <v>30</v>
@@ -2596,13 +2552,76 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="17.5" thickBot="1"/>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50">
+        <v>44</v>
+      </c>
+      <c r="C50">
+        <v>24</v>
+      </c>
+      <c r="D50">
+        <v>32</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>32</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>13.96</v>
+      </c>
+      <c r="I50" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51">
+        <v>44</v>
+      </c>
+      <c r="C51">
+        <v>24</v>
+      </c>
+      <c r="D51">
+        <v>32</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>32</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>12.41</v>
+      </c>
+      <c r="I51" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B52">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C52">
         <v>24</v>
@@ -2619,74 +2638,17 @@
       <c r="G52">
         <v>2</v>
       </c>
-      <c r="H52" s="5">
-        <v>11.36</v>
+      <c r="H52">
+        <v>9.06</v>
       </c>
       <c r="I52" t="s">
         <v>30</v>
       </c>
       <c r="J52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53">
-        <v>48</v>
-      </c>
-      <c r="C53">
-        <v>24</v>
-      </c>
-      <c r="D53">
-        <v>32</v>
-      </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-      <c r="F53">
-        <v>32</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
-      <c r="H53" s="6">
-        <v>9.5</v>
-      </c>
-      <c r="I53" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54">
-        <v>48</v>
-      </c>
-      <c r="C54">
-        <v>24</v>
-      </c>
-      <c r="D54">
-        <v>32</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54">
-        <v>32</v>
-      </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
-      <c r="H54" s="6">
-        <v>10.029999999999999</v>
-      </c>
-      <c r="I54" t="s">
-        <v>30</v>
-      </c>
-    </row>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="17.5" thickBot="1"/>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>63</v>
@@ -2709,11 +2671,14 @@
       <c r="G55">
         <v>2</v>
       </c>
-      <c r="H55" s="6">
-        <v>9.6</v>
+      <c r="H55" s="5">
+        <v>11.36</v>
       </c>
       <c r="I55" t="s">
         <v>30</v>
+      </c>
+      <c r="J55" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2739,7 +2704,7 @@
         <v>2</v>
       </c>
       <c r="H56" s="6">
-        <v>12.09</v>
+        <v>9.5</v>
       </c>
       <c r="I56" t="s">
         <v>30</v>
@@ -2768,7 +2733,7 @@
         <v>2</v>
       </c>
       <c r="H57" s="6">
-        <v>8.9499999999999993</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="I57" t="s">
         <v>30</v>
@@ -2797,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="H58" s="6">
-        <v>6.52</v>
+        <v>9.6</v>
       </c>
       <c r="I58" t="s">
         <v>30</v>
@@ -2826,7 +2791,7 @@
         <v>2</v>
       </c>
       <c r="H59" s="6">
-        <v>15.73</v>
+        <v>12.09</v>
       </c>
       <c r="I59" t="s">
         <v>30</v>
@@ -2855,13 +2820,13 @@
         <v>2</v>
       </c>
       <c r="H60" s="6">
-        <v>6.44</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="I60" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="17.5" thickBot="1">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -2883,113 +2848,104 @@
       <c r="G61">
         <v>2</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="6">
+        <v>6.52</v>
+      </c>
+      <c r="I61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>48</v>
+      </c>
+      <c r="C62">
+        <v>24</v>
+      </c>
+      <c r="D62">
+        <v>32</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>32</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62" s="6">
+        <v>15.73</v>
+      </c>
+      <c r="I62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>48</v>
+      </c>
+      <c r="C63">
+        <v>24</v>
+      </c>
+      <c r="D63">
+        <v>32</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>32</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63" s="6">
+        <v>6.44</v>
+      </c>
+      <c r="I63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>48</v>
+      </c>
+      <c r="C64">
+        <v>24</v>
+      </c>
+      <c r="D64">
+        <v>32</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>32</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64" s="7">
         <v>11.01</v>
       </c>
-      <c r="I61" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="H62" s="4">
-        <f>AVERAGE(H52:H61)</f>
+      <c r="I64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="H65" s="4">
+        <f>AVERAGE(H55:H64)</f>
         <v>10.123000000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64">
-        <v>48</v>
-      </c>
-      <c r="C64">
-        <v>24</v>
-      </c>
-      <c r="D64">
-        <v>32</v>
-      </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
-      <c r="F64">
-        <v>32</v>
-      </c>
-      <c r="G64">
-        <v>2</v>
-      </c>
-      <c r="H64">
-        <v>6.51</v>
-      </c>
-      <c r="I64" t="s">
-        <v>30</v>
-      </c>
-      <c r="J64" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65">
-        <v>48</v>
-      </c>
-      <c r="C65">
-        <v>24</v>
-      </c>
-      <c r="D65">
-        <v>32</v>
-      </c>
-      <c r="E65">
-        <v>2</v>
-      </c>
-      <c r="F65">
-        <v>32</v>
-      </c>
-      <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="H65">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="I65" t="s">
-        <v>30</v>
-      </c>
-      <c r="J65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66">
-        <v>48</v>
-      </c>
-      <c r="C66">
-        <v>24</v>
-      </c>
-      <c r="D66">
-        <v>32</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
-      <c r="F66">
-        <v>32</v>
-      </c>
-      <c r="G66">
-        <v>2</v>
-      </c>
-      <c r="H66">
-        <v>8.85</v>
-      </c>
-      <c r="I66" t="s">
-        <v>30</v>
-      </c>
-      <c r="J66" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3015,7 +2971,7 @@
         <v>2</v>
       </c>
       <c r="H67">
-        <v>8.74</v>
+        <v>6.51</v>
       </c>
       <c r="I67" t="s">
         <v>30</v>
@@ -3047,13 +3003,13 @@
         <v>2</v>
       </c>
       <c r="H68">
-        <v>4.26</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="I68" t="s">
         <v>30</v>
       </c>
       <c r="J68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3079,13 +3035,13 @@
         <v>2</v>
       </c>
       <c r="H69">
-        <v>6.12</v>
+        <v>8.85</v>
       </c>
       <c r="I69" t="s">
         <v>30</v>
       </c>
       <c r="J69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3111,13 +3067,13 @@
         <v>2</v>
       </c>
       <c r="H70">
-        <v>7.12</v>
+        <v>8.74</v>
       </c>
       <c r="I70" t="s">
         <v>30</v>
       </c>
       <c r="J70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3143,13 +3099,13 @@
         <v>2</v>
       </c>
       <c r="H71">
-        <v>8.2799999999999994</v>
+        <v>4.26</v>
       </c>
       <c r="I71" t="s">
         <v>30</v>
       </c>
       <c r="J71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3175,13 +3131,13 @@
         <v>2</v>
       </c>
       <c r="H72">
-        <v>7.78</v>
+        <v>6.12</v>
       </c>
       <c r="I72" t="s">
         <v>30</v>
       </c>
       <c r="J72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3207,13 +3163,13 @@
         <v>2</v>
       </c>
       <c r="H73">
-        <v>6.46</v>
+        <v>7.12</v>
       </c>
       <c r="I73" t="s">
         <v>30</v>
       </c>
       <c r="J73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3239,13 +3195,13 @@
         <v>2</v>
       </c>
       <c r="H74">
-        <v>8.7799999999999994</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="I74" t="s">
         <v>30</v>
       </c>
       <c r="J74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3271,13 +3227,13 @@
         <v>2</v>
       </c>
       <c r="H75">
-        <v>8.59</v>
+        <v>7.78</v>
       </c>
       <c r="I75" t="s">
         <v>30</v>
       </c>
       <c r="J75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3303,12 +3259,108 @@
         <v>2</v>
       </c>
       <c r="H76">
+        <v>6.46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>30</v>
+      </c>
+      <c r="J76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77">
+        <v>48</v>
+      </c>
+      <c r="C77">
+        <v>24</v>
+      </c>
+      <c r="D77">
+        <v>32</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>32</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="I77" t="s">
+        <v>30</v>
+      </c>
+      <c r="J77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78">
+        <v>48</v>
+      </c>
+      <c r="C78">
+        <v>24</v>
+      </c>
+      <c r="D78">
+        <v>32</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>32</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>8.59</v>
+      </c>
+      <c r="I78" t="s">
+        <v>30</v>
+      </c>
+      <c r="J78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79">
+        <v>48</v>
+      </c>
+      <c r="C79">
+        <v>24</v>
+      </c>
+      <c r="D79">
+        <v>32</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>32</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79">
         <v>9.02</v>
       </c>
-      <c r="I76" t="s">
-        <v>30</v>
-      </c>
-      <c r="J76" t="s">
+      <c r="I79" t="s">
+        <v>30</v>
+      </c>
+      <c r="J79" t="s">
         <v>68</v>
       </c>
     </row>
